--- a/FourthLab/Points.xlsx
+++ b/FourthLab/Points.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,50 +360,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="B7">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
